--- a/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/S_repeat_8.xlsx
+++ b/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/S_repeat_8.xlsx
@@ -1,293 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ks17361/Lab_work_Dek_Woolfson/BADASS/Small_molecule_data_large_array/AAs/Reformatted_AA_csvs/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40B7CE7E-0C88-C440-A2E1-BB88986A1A27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="End point" sheetId="1" r:id="rId1"/>
-    <sheet name="Protocol Information" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="End point" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Protocol Information" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="83">
-  <si>
-    <t>User: USER</t>
-  </si>
-  <si>
-    <t>Path: C:\Program Files (x86)\BMG\CLARIOstar\User\Data\</t>
-  </si>
-  <si>
-    <t>Test ID: 735</t>
-  </si>
-  <si>
-    <t>Test Name: Will 384 DPH 48array</t>
-  </si>
-  <si>
-    <t>Date: 18/03/2020</t>
-  </si>
-  <si>
-    <t>Time: 12:55:17</t>
-  </si>
-  <si>
-    <t>ID1: 180320_Serine_repeat_7</t>
-  </si>
-  <si>
-    <t>Fluorescence (FI), multichromatic</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>O</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>Plate layout</t>
-  </si>
-  <si>
-    <t>1:6</t>
-  </si>
-  <si>
-    <t>7:12</t>
-  </si>
-  <si>
-    <t>13:18</t>
-  </si>
-  <si>
-    <t>19:24</t>
-  </si>
-  <si>
-    <t>A:H</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Blank</t>
-  </si>
-  <si>
-    <t>I:P</t>
-  </si>
-  <si>
-    <t>Peptide layout</t>
-  </si>
-  <si>
-    <t>No Pep</t>
-  </si>
-  <si>
-    <t>CCPent</t>
-  </si>
-  <si>
-    <t>QLKEIA</t>
-  </si>
-  <si>
-    <t>CCHex2-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L28W</t>
-  </si>
-  <si>
-    <t>GRP22</t>
-  </si>
-  <si>
-    <t>CCHex</t>
-  </si>
-  <si>
-    <t>NLKEIA</t>
-  </si>
-  <si>
-    <t>CCHept-L28K</t>
-  </si>
-  <si>
-    <t>CCHept-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L7Y</t>
-  </si>
-  <si>
-    <t>GRP35</t>
-  </si>
-  <si>
-    <t>CCHex2</t>
-  </si>
-  <si>
-    <t>CCHept-I17G-L21G</t>
-  </si>
-  <si>
-    <t>CCHept-I17H</t>
-  </si>
-  <si>
-    <t>CCHept-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-L28Y</t>
-  </si>
-  <si>
-    <t>GRP46</t>
-  </si>
-  <si>
-    <t>CCHept</t>
-  </si>
-  <si>
-    <t>CCHept-I17A-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-I17K-L24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-I24Y</t>
-  </si>
-  <si>
-    <t>GRP51</t>
-  </si>
-  <si>
-    <t>CCHept-I24D</t>
-  </si>
-  <si>
-    <t>CCHept-L14A</t>
-  </si>
-  <si>
-    <t>CCHept-L7K</t>
-  </si>
-  <si>
-    <t>CCHept-L21N-I24N</t>
-  </si>
-  <si>
-    <t>CCHept-L21S-I24Y</t>
-  </si>
-  <si>
-    <t>GRP52</t>
-  </si>
-  <si>
-    <t>CCHept-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21A</t>
-  </si>
-  <si>
-    <t>CCHept-L21K-I24E</t>
-  </si>
-  <si>
-    <t>CCHept-L21T-I24T</t>
-  </si>
-  <si>
-    <t>CCHept-L21Y-I24S</t>
-  </si>
-  <si>
-    <t>GRP63</t>
-  </si>
-  <si>
-    <t>CCHept-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21K</t>
-  </si>
-  <si>
-    <t>CCHept-L21E-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-L21H-I24H</t>
-  </si>
-  <si>
-    <t>CCHept-I17T</t>
-  </si>
-  <si>
-    <t>GRP80</t>
-  </si>
-  <si>
-    <t>CCHept-I17K</t>
-  </si>
-  <si>
-    <t>CCPent-I24K</t>
-  </si>
-  <si>
-    <t>CCHept-I24S</t>
-  </si>
-  <si>
-    <t>CCHept-L7W</t>
-  </si>
-  <si>
-    <t>CCHept-I24P</t>
-  </si>
-  <si>
-    <t>1. Raw Data (350-15/450-20 1)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -306,21 +47,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -608,1363 +340,1417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A3:Y31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>User: USER</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Path: C:\Program Files (x86)\BMG\CLARIOstar\User\Data\</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Test ID: 735</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Test Name: Will 384 DPH 48array</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Date: 18/03/2020</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Time: 12:55:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ID1: 180320_Serine_repeat_7</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Fluorescence (FI), multichromatic</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1. Raw Data (350-15/450-20 1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="D15" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="E15" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="F15" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="G15" t="n">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="H15" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15">
-        <v>4</v>
-      </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
-      <c r="G15">
-        <v>6</v>
-      </c>
-      <c r="H15">
-        <v>7</v>
-      </c>
-      <c r="I15">
+      <c r="I15" t="n">
         <v>8</v>
       </c>
-      <c r="J15">
+      <c r="J15" t="n">
         <v>9</v>
       </c>
-      <c r="K15">
+      <c r="K15" t="n">
         <v>10</v>
       </c>
-      <c r="L15">
+      <c r="L15" t="n">
         <v>11</v>
       </c>
-      <c r="M15">
+      <c r="M15" t="n">
         <v>12</v>
       </c>
-      <c r="N15">
+      <c r="N15" t="n">
         <v>13</v>
       </c>
-      <c r="O15">
+      <c r="O15" t="n">
         <v>14</v>
       </c>
-      <c r="P15">
+      <c r="P15" t="n">
         <v>15</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" t="n">
         <v>16</v>
       </c>
-      <c r="R15">
+      <c r="R15" t="n">
         <v>17</v>
       </c>
-      <c r="S15">
+      <c r="S15" t="n">
         <v>18</v>
       </c>
-      <c r="T15">
+      <c r="T15" t="n">
         <v>19</v>
       </c>
-      <c r="U15">
+      <c r="U15" t="n">
         <v>20</v>
       </c>
-      <c r="V15">
+      <c r="V15" t="n">
         <v>21</v>
       </c>
-      <c r="W15">
+      <c r="W15" t="n">
         <v>22</v>
       </c>
-      <c r="X15">
+      <c r="X15" t="n">
         <v>23</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" t="n">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16">
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>374</v>
       </c>
-      <c r="C16">
+      <c r="C16" t="n">
         <v>12249</v>
       </c>
-      <c r="D16">
+      <c r="D16" t="n">
         <v>416</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="n">
         <v>15342</v>
       </c>
-      <c r="F16">
+      <c r="F16" t="n">
         <v>4575</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="n">
         <v>6434</v>
       </c>
-      <c r="H16">
+      <c r="H16" t="n">
         <v>417</v>
       </c>
-      <c r="I16">
+      <c r="I16" t="n">
         <v>12012</v>
       </c>
-      <c r="J16">
+      <c r="J16" t="n">
         <v>428</v>
       </c>
-      <c r="K16">
+      <c r="K16" t="n">
         <v>16633</v>
       </c>
-      <c r="L16">
+      <c r="L16" t="n">
         <v>4513</v>
       </c>
-      <c r="M16">
+      <c r="M16" t="n">
         <v>7508</v>
       </c>
-      <c r="N16">
+      <c r="N16" t="n">
         <v>371</v>
       </c>
-      <c r="O16">
+      <c r="O16" t="n">
         <v>11968</v>
       </c>
-      <c r="P16">
+      <c r="P16" t="n">
         <v>442</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" t="n">
         <v>17276</v>
       </c>
-      <c r="R16">
+      <c r="R16" t="n">
         <v>4969</v>
       </c>
-      <c r="S16">
+      <c r="S16" t="n">
         <v>6392</v>
       </c>
-      <c r="T16">
+      <c r="T16" t="n">
         <v>406</v>
       </c>
-      <c r="U16">
+      <c r="U16" t="n">
         <v>9784</v>
       </c>
-      <c r="V16">
+      <c r="V16" t="n">
         <v>427</v>
       </c>
-      <c r="W16">
+      <c r="W16" t="n">
         <v>17629</v>
       </c>
-      <c r="X16">
+      <c r="X16" t="n">
         <v>4668</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" t="n">
         <v>7613</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17">
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>28036</v>
       </c>
-      <c r="C17">
+      <c r="C17" t="n">
         <v>5294</v>
       </c>
-      <c r="D17">
+      <c r="D17" t="n">
         <v>18635</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="n">
         <v>11711</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="n">
         <v>5968</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="n">
         <v>6828</v>
       </c>
-      <c r="H17">
+      <c r="H17" t="n">
         <v>29226</v>
       </c>
-      <c r="I17">
+      <c r="I17" t="n">
         <v>5327</v>
       </c>
-      <c r="J17">
+      <c r="J17" t="n">
         <v>18506</v>
       </c>
-      <c r="K17">
+      <c r="K17" t="n">
         <v>12526</v>
       </c>
-      <c r="L17">
+      <c r="L17" t="n">
         <v>6508</v>
       </c>
-      <c r="M17">
+      <c r="M17" t="n">
         <v>7587</v>
       </c>
-      <c r="N17">
+      <c r="N17" t="n">
         <v>28320</v>
       </c>
-      <c r="O17">
+      <c r="O17" t="n">
         <v>6004</v>
       </c>
-      <c r="P17">
+      <c r="P17" t="n">
         <v>19330</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" t="n">
         <v>12117</v>
       </c>
-      <c r="R17">
+      <c r="R17" t="n">
         <v>6282</v>
       </c>
-      <c r="S17">
+      <c r="S17" t="n">
         <v>8000</v>
       </c>
-      <c r="T17">
+      <c r="T17" t="n">
         <v>29192</v>
       </c>
-      <c r="U17">
+      <c r="U17" t="n">
         <v>4399</v>
       </c>
-      <c r="V17">
+      <c r="V17" t="n">
         <v>18776</v>
       </c>
-      <c r="W17">
+      <c r="W17" t="n">
         <v>12379</v>
       </c>
-      <c r="X17">
+      <c r="X17" t="n">
         <v>6278</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" t="n">
         <v>7044</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B18">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>416</v>
       </c>
-      <c r="C18">
+      <c r="C18" t="n">
         <v>4030</v>
       </c>
-      <c r="D18">
+      <c r="D18" t="n">
         <v>3169</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="n">
         <v>9105</v>
       </c>
-      <c r="F18">
+      <c r="F18" t="n">
         <v>3226</v>
       </c>
-      <c r="G18">
+      <c r="G18" t="n">
         <v>13037</v>
       </c>
-      <c r="H18">
+      <c r="H18" t="n">
         <v>432</v>
       </c>
-      <c r="I18">
+      <c r="I18" t="n">
         <v>4927</v>
       </c>
-      <c r="J18">
+      <c r="J18" t="n">
         <v>4444</v>
       </c>
-      <c r="K18">
+      <c r="K18" t="n">
         <v>8588</v>
       </c>
-      <c r="L18">
+      <c r="L18" t="n">
         <v>3275</v>
       </c>
-      <c r="M18">
+      <c r="M18" t="n">
         <v>11976</v>
       </c>
-      <c r="N18">
+      <c r="N18" t="n">
         <v>453</v>
       </c>
-      <c r="O18">
+      <c r="O18" t="n">
         <v>4557</v>
       </c>
-      <c r="P18">
+      <c r="P18" t="n">
         <v>4048</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" t="n">
         <v>8886</v>
       </c>
-      <c r="R18">
+      <c r="R18" t="n">
         <v>3429</v>
       </c>
-      <c r="S18">
+      <c r="S18" t="n">
         <v>13491</v>
       </c>
-      <c r="T18">
+      <c r="T18" t="n">
         <v>464</v>
       </c>
-      <c r="U18">
+      <c r="U18" t="n">
         <v>4927</v>
       </c>
-      <c r="V18">
+      <c r="V18" t="n">
         <v>3564</v>
       </c>
-      <c r="W18">
+      <c r="W18" t="n">
         <v>7882</v>
       </c>
-      <c r="X18">
+      <c r="X18" t="n">
         <v>3761</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" t="n">
         <v>11844</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>1483</v>
       </c>
-      <c r="C19">
+      <c r="C19" t="n">
         <v>7950</v>
       </c>
-      <c r="D19">
+      <c r="D19" t="n">
         <v>22273</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="n">
         <v>639</v>
       </c>
-      <c r="F19">
+      <c r="F19" t="n">
         <v>13545</v>
       </c>
-      <c r="G19">
+      <c r="G19" t="n">
         <v>10794</v>
       </c>
-      <c r="H19">
+      <c r="H19" t="n">
         <v>1423</v>
       </c>
-      <c r="I19">
+      <c r="I19" t="n">
         <v>8843</v>
       </c>
-      <c r="J19">
+      <c r="J19" t="n">
         <v>22916</v>
       </c>
-      <c r="K19">
+      <c r="K19" t="n">
         <v>642</v>
       </c>
-      <c r="L19">
+      <c r="L19" t="n">
         <v>13182</v>
       </c>
-      <c r="M19">
+      <c r="M19" t="n">
         <v>10910</v>
       </c>
-      <c r="N19">
+      <c r="N19" t="n">
         <v>1425</v>
       </c>
-      <c r="O19">
+      <c r="O19" t="n">
         <v>8707</v>
       </c>
-      <c r="P19">
+      <c r="P19" t="n">
         <v>20096</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" t="n">
         <v>645</v>
       </c>
-      <c r="R19">
+      <c r="R19" t="n">
         <v>12712</v>
       </c>
-      <c r="S19">
+      <c r="S19" t="n">
         <v>9264</v>
       </c>
-      <c r="T19">
+      <c r="T19" t="n">
         <v>1560</v>
       </c>
-      <c r="U19">
+      <c r="U19" t="n">
         <v>7370</v>
       </c>
-      <c r="V19">
+      <c r="V19" t="n">
         <v>19644</v>
       </c>
-      <c r="W19">
+      <c r="W19" t="n">
         <v>602</v>
       </c>
-      <c r="X19">
+      <c r="X19" t="n">
         <v>13627</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" t="n">
         <v>10978</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20">
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>26280</v>
       </c>
-      <c r="C20">
+      <c r="C20" t="n">
         <v>10742</v>
       </c>
-      <c r="D20">
+      <c r="D20" t="n">
         <v>20384</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="n">
         <v>11116</v>
       </c>
-      <c r="F20">
+      <c r="F20" t="n">
         <v>8799</v>
       </c>
-      <c r="G20">
+      <c r="G20" t="n">
         <v>12839</v>
       </c>
-      <c r="H20">
+      <c r="H20" t="n">
         <v>26646</v>
       </c>
-      <c r="I20">
+      <c r="I20" t="n">
         <v>9734</v>
       </c>
-      <c r="J20">
+      <c r="J20" t="n">
         <v>21796</v>
       </c>
-      <c r="K20">
+      <c r="K20" t="n">
         <v>9924</v>
       </c>
-      <c r="L20">
+      <c r="L20" t="n">
         <v>10258</v>
       </c>
-      <c r="M20">
+      <c r="M20" t="n">
         <v>11699</v>
       </c>
-      <c r="N20">
+      <c r="N20" t="n">
         <v>30060</v>
       </c>
-      <c r="O20">
+      <c r="O20" t="n">
         <v>12049</v>
       </c>
-      <c r="P20">
+      <c r="P20" t="n">
         <v>20130</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" t="n">
         <v>9565</v>
       </c>
-      <c r="R20">
+      <c r="R20" t="n">
         <v>9230</v>
       </c>
-      <c r="S20">
+      <c r="S20" t="n">
         <v>11767</v>
       </c>
-      <c r="T20">
+      <c r="T20" t="n">
         <v>29372</v>
       </c>
-      <c r="U20">
+      <c r="U20" t="n">
         <v>10978</v>
       </c>
-      <c r="V20">
+      <c r="V20" t="n">
         <v>21935</v>
       </c>
-      <c r="W20">
+      <c r="W20" t="n">
         <v>10259</v>
       </c>
-      <c r="X20">
+      <c r="X20" t="n">
         <v>9814</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" t="n">
         <v>13075</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21">
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
         <v>31290</v>
       </c>
-      <c r="C21">
+      <c r="C21" t="n">
         <v>21813</v>
       </c>
-      <c r="D21">
+      <c r="D21" t="n">
         <v>11278</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="n">
         <v>10709</v>
       </c>
-      <c r="F21">
+      <c r="F21" t="n">
         <v>7878</v>
       </c>
-      <c r="G21">
+      <c r="G21" t="n">
         <v>8823</v>
       </c>
-      <c r="H21">
+      <c r="H21" t="n">
         <v>30688</v>
       </c>
-      <c r="I21">
+      <c r="I21" t="n">
         <v>22743</v>
       </c>
-      <c r="J21">
+      <c r="J21" t="n">
         <v>12911</v>
       </c>
-      <c r="K21">
+      <c r="K21" t="n">
         <v>10367</v>
       </c>
-      <c r="L21">
+      <c r="L21" t="n">
         <v>7345</v>
       </c>
-      <c r="M21">
+      <c r="M21" t="n">
         <v>9341</v>
       </c>
-      <c r="N21">
+      <c r="N21" t="n">
         <v>34761</v>
       </c>
-      <c r="O21">
+      <c r="O21" t="n">
         <v>22648</v>
       </c>
-      <c r="P21">
+      <c r="P21" t="n">
         <v>11104</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" t="n">
         <v>10125</v>
       </c>
-      <c r="R21">
+      <c r="R21" t="n">
         <v>7401</v>
       </c>
-      <c r="S21">
+      <c r="S21" t="n">
         <v>9841</v>
       </c>
-      <c r="T21">
+      <c r="T21" t="n">
         <v>33321</v>
       </c>
-      <c r="U21">
+      <c r="U21" t="n">
         <v>22058</v>
       </c>
-      <c r="V21">
+      <c r="V21" t="n">
         <v>11617</v>
       </c>
-      <c r="W21">
+      <c r="W21" t="n">
         <v>10223</v>
       </c>
-      <c r="X21">
+      <c r="X21" t="n">
         <v>6836</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" t="n">
         <v>9650</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22">
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>G</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>24826</v>
       </c>
-      <c r="C22">
+      <c r="C22" t="n">
         <v>25147</v>
       </c>
-      <c r="D22">
+      <c r="D22" t="n">
         <v>5568</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="n">
         <v>7890</v>
       </c>
-      <c r="F22">
+      <c r="F22" t="n">
         <v>5846</v>
       </c>
-      <c r="G22">
+      <c r="G22" t="n">
         <v>1513</v>
       </c>
-      <c r="H22">
+      <c r="H22" t="n">
         <v>25038</v>
       </c>
-      <c r="I22">
+      <c r="I22" t="n">
         <v>25221</v>
       </c>
-      <c r="J22">
+      <c r="J22" t="n">
         <v>5969</v>
       </c>
-      <c r="K22">
+      <c r="K22" t="n">
         <v>8977</v>
       </c>
-      <c r="L22">
+      <c r="L22" t="n">
         <v>5378</v>
       </c>
-      <c r="M22">
+      <c r="M22" t="n">
         <v>1619</v>
       </c>
-      <c r="N22">
+      <c r="N22" t="n">
         <v>24603</v>
       </c>
-      <c r="O22">
+      <c r="O22" t="n">
         <v>24688</v>
       </c>
-      <c r="P22">
+      <c r="P22" t="n">
         <v>5868</v>
       </c>
-      <c r="Q22">
+      <c r="Q22" t="n">
         <v>8045</v>
       </c>
-      <c r="R22">
+      <c r="R22" t="n">
         <v>5572</v>
       </c>
-      <c r="S22">
+      <c r="S22" t="n">
         <v>1488</v>
       </c>
-      <c r="T22">
+      <c r="T22" t="n">
         <v>20410</v>
       </c>
-      <c r="U22">
+      <c r="U22" t="n">
         <v>24745</v>
       </c>
-      <c r="V22">
+      <c r="V22" t="n">
         <v>5154</v>
       </c>
-      <c r="W22">
+      <c r="W22" t="n">
         <v>11832</v>
       </c>
-      <c r="X22">
+      <c r="X22" t="n">
         <v>5410</v>
       </c>
-      <c r="Y22">
+      <c r="Y22" t="n">
         <v>1768</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>15</v>
-      </c>
-      <c r="B23">
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
         <v>4842</v>
       </c>
-      <c r="C23">
+      <c r="C23" t="n">
         <v>1547</v>
       </c>
-      <c r="D23">
+      <c r="D23" t="n">
         <v>1709</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="n">
         <v>12501</v>
       </c>
-      <c r="F23">
+      <c r="F23" t="n">
         <v>6082</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="n">
         <v>8169</v>
       </c>
-      <c r="H23">
+      <c r="H23" t="n">
         <v>4611</v>
       </c>
-      <c r="I23">
+      <c r="I23" t="n">
         <v>1642</v>
       </c>
-      <c r="J23">
+      <c r="J23" t="n">
         <v>1809</v>
       </c>
-      <c r="K23">
+      <c r="K23" t="n">
         <v>14246</v>
       </c>
-      <c r="L23">
+      <c r="L23" t="n">
         <v>6070</v>
       </c>
-      <c r="M23">
+      <c r="M23" t="n">
         <v>8290</v>
       </c>
-      <c r="N23">
+      <c r="N23" t="n">
         <v>4628</v>
       </c>
-      <c r="O23">
+      <c r="O23" t="n">
         <v>1635</v>
       </c>
-      <c r="P23">
+      <c r="P23" t="n">
         <v>1546</v>
       </c>
-      <c r="Q23">
+      <c r="Q23" t="n">
         <v>12549</v>
       </c>
-      <c r="R23">
+      <c r="R23" t="n">
         <v>6459</v>
       </c>
-      <c r="S23">
+      <c r="S23" t="n">
         <v>8557</v>
       </c>
-      <c r="T23">
+      <c r="T23" t="n">
         <v>4162</v>
       </c>
-      <c r="U23">
+      <c r="U23" t="n">
         <v>1575</v>
       </c>
-      <c r="V23">
+      <c r="V23" t="n">
         <v>1394</v>
       </c>
-      <c r="W23">
+      <c r="W23" t="n">
         <v>12883</v>
       </c>
-      <c r="X23">
+      <c r="X23" t="n">
         <v>6923</v>
       </c>
-      <c r="Y23">
+      <c r="Y23" t="n">
         <v>8062</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24">
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>394</v>
       </c>
-      <c r="C24">
+      <c r="C24" t="n">
         <v>11687</v>
       </c>
-      <c r="D24">
+      <c r="D24" t="n">
         <v>433</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="n">
         <v>14480</v>
       </c>
-      <c r="F24">
+      <c r="F24" t="n">
         <v>3796</v>
       </c>
-      <c r="G24">
+      <c r="G24" t="n">
         <v>8022</v>
       </c>
-      <c r="H24">
+      <c r="H24" t="n">
         <v>480</v>
       </c>
-      <c r="I24">
+      <c r="I24" t="n">
         <v>11663</v>
       </c>
-      <c r="J24">
+      <c r="J24" t="n">
         <v>438</v>
       </c>
-      <c r="K24">
+      <c r="K24" t="n">
         <v>13912</v>
       </c>
-      <c r="L24">
+      <c r="L24" t="n">
         <v>3700</v>
       </c>
-      <c r="M24">
+      <c r="M24" t="n">
         <v>8053</v>
       </c>
-      <c r="N24">
+      <c r="N24" t="n">
         <v>377</v>
       </c>
-      <c r="O24">
+      <c r="O24" t="n">
         <v>11259</v>
       </c>
-      <c r="P24">
+      <c r="P24" t="n">
         <v>447</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" t="n">
         <v>15094</v>
       </c>
-      <c r="R24">
+      <c r="R24" t="n">
         <v>3840</v>
       </c>
-      <c r="S24">
+      <c r="S24" t="n">
         <v>8340</v>
       </c>
-      <c r="T24">
+      <c r="T24" t="n">
         <v>456</v>
       </c>
-      <c r="U24">
+      <c r="U24" t="n">
         <v>10412</v>
       </c>
-      <c r="V24">
+      <c r="V24" t="n">
         <v>474</v>
       </c>
-      <c r="W24">
+      <c r="W24" t="n">
         <v>13926</v>
       </c>
-      <c r="X24">
+      <c r="X24" t="n">
         <v>3476</v>
       </c>
-      <c r="Y24">
+      <c r="Y24" t="n">
         <v>7440</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25">
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
         <v>32906</v>
       </c>
-      <c r="C25">
+      <c r="C25" t="n">
         <v>5171</v>
       </c>
-      <c r="D25">
+      <c r="D25" t="n">
         <v>20057</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="n">
         <v>13813</v>
       </c>
-      <c r="F25">
+      <c r="F25" t="n">
         <v>5085</v>
       </c>
-      <c r="G25">
+      <c r="G25" t="n">
         <v>6666</v>
       </c>
-      <c r="H25">
+      <c r="H25" t="n">
         <v>30281</v>
       </c>
-      <c r="I25">
+      <c r="I25" t="n">
         <v>5309</v>
       </c>
-      <c r="J25">
+      <c r="J25" t="n">
         <v>21345</v>
       </c>
-      <c r="K25">
+      <c r="K25" t="n">
         <v>15082</v>
       </c>
-      <c r="L25">
+      <c r="L25" t="n">
         <v>5544</v>
       </c>
-      <c r="M25">
+      <c r="M25" t="n">
         <v>6785</v>
       </c>
-      <c r="N25">
+      <c r="N25" t="n">
         <v>25532</v>
       </c>
-      <c r="O25">
+      <c r="O25" t="n">
         <v>5341</v>
       </c>
-      <c r="P25">
+      <c r="P25" t="n">
         <v>20846</v>
       </c>
-      <c r="Q25">
+      <c r="Q25" t="n">
         <v>14238</v>
       </c>
-      <c r="R25">
+      <c r="R25" t="n">
         <v>5540</v>
       </c>
-      <c r="S25">
+      <c r="S25" t="n">
         <v>5941</v>
       </c>
-      <c r="T25">
+      <c r="T25" t="n">
         <v>27050</v>
       </c>
-      <c r="U25">
+      <c r="U25" t="n">
         <v>4582</v>
       </c>
-      <c r="V25">
+      <c r="V25" t="n">
         <v>17189</v>
       </c>
-      <c r="W25">
+      <c r="W25" t="n">
         <v>13261</v>
       </c>
-      <c r="X25">
+      <c r="X25" t="n">
         <v>5059</v>
       </c>
-      <c r="Y25">
+      <c r="Y25" t="n">
         <v>6742</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26">
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
         <v>420</v>
       </c>
-      <c r="C26">
+      <c r="C26" t="n">
         <v>4509</v>
       </c>
-      <c r="D26">
+      <c r="D26" t="n">
         <v>5110</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="n">
         <v>8666</v>
       </c>
-      <c r="F26">
+      <c r="F26" t="n">
         <v>2130</v>
       </c>
-      <c r="G26">
+      <c r="G26" t="n">
         <v>11265</v>
       </c>
-      <c r="H26">
+      <c r="H26" t="n">
         <v>422</v>
       </c>
-      <c r="I26">
+      <c r="I26" t="n">
         <v>5326</v>
       </c>
-      <c r="J26">
+      <c r="J26" t="n">
         <v>4993</v>
       </c>
-      <c r="K26">
+      <c r="K26" t="n">
         <v>8545</v>
       </c>
-      <c r="L26">
+      <c r="L26" t="n">
         <v>2646</v>
       </c>
-      <c r="M26">
+      <c r="M26" t="n">
         <v>11998</v>
       </c>
-      <c r="N26">
+      <c r="N26" t="n">
         <v>444</v>
       </c>
-      <c r="O26">
+      <c r="O26" t="n">
         <v>5663</v>
       </c>
-      <c r="P26">
+      <c r="P26" t="n">
         <v>4952</v>
       </c>
-      <c r="Q26">
+      <c r="Q26" t="n">
         <v>9085</v>
       </c>
-      <c r="R26">
+      <c r="R26" t="n">
         <v>3095</v>
       </c>
-      <c r="S26">
+      <c r="S26" t="n">
         <v>13190</v>
       </c>
-      <c r="T26">
+      <c r="T26" t="n">
         <v>473</v>
       </c>
-      <c r="U26">
+      <c r="U26" t="n">
         <v>4787</v>
       </c>
-      <c r="V26">
+      <c r="V26" t="n">
         <v>5730</v>
       </c>
-      <c r="W26">
+      <c r="W26" t="n">
         <v>9164</v>
       </c>
-      <c r="X26">
+      <c r="X26" t="n">
         <v>3336</v>
       </c>
-      <c r="Y26">
+      <c r="Y26" t="n">
         <v>13045</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27">
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
         <v>1276</v>
       </c>
-      <c r="C27">
+      <c r="C27" t="n">
         <v>8192</v>
       </c>
-      <c r="D27">
+      <c r="D27" t="n">
         <v>21101</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="n">
         <v>546</v>
       </c>
-      <c r="F27">
+      <c r="F27" t="n">
         <v>11158</v>
       </c>
-      <c r="G27">
+      <c r="G27" t="n">
         <v>8341</v>
       </c>
-      <c r="H27">
+      <c r="H27" t="n">
         <v>1114</v>
       </c>
-      <c r="I27">
+      <c r="I27" t="n">
         <v>8142</v>
       </c>
-      <c r="J27">
+      <c r="J27" t="n">
         <v>5446</v>
       </c>
-      <c r="K27">
+      <c r="K27" t="n">
         <v>616</v>
       </c>
-      <c r="L27">
+      <c r="L27" t="n">
         <v>12939</v>
       </c>
-      <c r="M27">
+      <c r="M27" t="n">
         <v>10198</v>
       </c>
-      <c r="N27">
+      <c r="N27" t="n">
         <v>1347</v>
       </c>
-      <c r="O27">
+      <c r="O27" t="n">
         <v>9214</v>
       </c>
-      <c r="P27">
+      <c r="P27" t="n">
         <v>23037</v>
       </c>
-      <c r="Q27">
+      <c r="Q27" t="n">
         <v>645</v>
       </c>
-      <c r="R27">
+      <c r="R27" t="n">
         <v>14184</v>
       </c>
-      <c r="S27">
+      <c r="S27" t="n">
         <v>9619</v>
       </c>
-      <c r="T27">
+      <c r="T27" t="n">
         <v>1457</v>
       </c>
-      <c r="U27">
+      <c r="U27" t="n">
         <v>8026</v>
       </c>
-      <c r="V27">
+      <c r="V27" t="n">
         <v>20709</v>
       </c>
-      <c r="W27">
+      <c r="W27" t="n">
         <v>617</v>
       </c>
-      <c r="X27">
+      <c r="X27" t="n">
         <v>13362</v>
       </c>
-      <c r="Y27">
+      <c r="Y27" t="n">
         <v>10703</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28">
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
         <v>33685</v>
       </c>
-      <c r="C28">
+      <c r="C28" t="n">
         <v>9767</v>
       </c>
-      <c r="D28">
+      <c r="D28" t="n">
         <v>24430</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="n">
         <v>8969</v>
       </c>
-      <c r="F28">
+      <c r="F28" t="n">
         <v>11220</v>
       </c>
-      <c r="G28">
+      <c r="G28" t="n">
         <v>14561</v>
       </c>
-      <c r="H28">
+      <c r="H28" t="n">
         <v>36633</v>
       </c>
-      <c r="I28">
+      <c r="I28" t="n">
         <v>12011</v>
       </c>
-      <c r="J28">
+      <c r="J28" t="n">
         <v>20332</v>
       </c>
-      <c r="K28">
+      <c r="K28" t="n">
         <v>10414</v>
       </c>
-      <c r="L28">
+      <c r="L28" t="n">
         <v>12607</v>
       </c>
-      <c r="M28">
+      <c r="M28" t="n">
         <v>12658</v>
       </c>
-      <c r="N28">
+      <c r="N28" t="n">
         <v>30710</v>
       </c>
-      <c r="O28">
+      <c r="O28" t="n">
         <v>10216</v>
       </c>
-      <c r="P28">
+      <c r="P28" t="n">
         <v>21348</v>
       </c>
-      <c r="Q28">
+      <c r="Q28" t="n">
         <v>10121</v>
       </c>
-      <c r="R28">
+      <c r="R28" t="n">
         <v>9762</v>
       </c>
-      <c r="S28">
+      <c r="S28" t="n">
         <v>11708</v>
       </c>
-      <c r="T28">
+      <c r="T28" t="n">
         <v>31882</v>
       </c>
-      <c r="U28">
+      <c r="U28" t="n">
         <v>8807</v>
       </c>
-      <c r="V28">
+      <c r="V28" t="n">
         <v>21663</v>
       </c>
-      <c r="W28">
+      <c r="W28" t="n">
         <v>8860</v>
       </c>
-      <c r="X28">
+      <c r="X28" t="n">
         <v>8368</v>
       </c>
-      <c r="Y28">
+      <c r="Y28" t="n">
         <v>12720</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29">
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
         <v>38654</v>
       </c>
-      <c r="C29">
+      <c r="C29" t="n">
         <v>25595</v>
       </c>
-      <c r="D29">
+      <c r="D29" t="n">
         <v>12400</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="n">
         <v>11917</v>
       </c>
-      <c r="F29">
+      <c r="F29" t="n">
         <v>9241</v>
       </c>
-      <c r="G29">
+      <c r="G29" t="n">
         <v>11639</v>
       </c>
-      <c r="H29">
+      <c r="H29" t="n">
         <v>31485</v>
       </c>
-      <c r="I29">
+      <c r="I29" t="n">
         <v>20978</v>
       </c>
-      <c r="J29">
+      <c r="J29" t="n">
         <v>13719</v>
       </c>
-      <c r="K29">
+      <c r="K29" t="n">
         <v>11164</v>
       </c>
-      <c r="L29">
+      <c r="L29" t="n">
         <v>8116</v>
       </c>
-      <c r="M29">
+      <c r="M29" t="n">
         <v>11354</v>
       </c>
-      <c r="N29">
+      <c r="N29" t="n">
         <v>32244</v>
       </c>
-      <c r="O29">
+      <c r="O29" t="n">
         <v>21969</v>
       </c>
-      <c r="P29">
+      <c r="P29" t="n">
         <v>13402</v>
       </c>
-      <c r="Q29">
+      <c r="Q29" t="n">
         <v>10860</v>
       </c>
-      <c r="R29">
+      <c r="R29" t="n">
         <v>7432</v>
       </c>
-      <c r="S29">
+      <c r="S29" t="n">
         <v>9162</v>
       </c>
-      <c r="T29">
+      <c r="T29" t="n">
         <v>34810</v>
       </c>
-      <c r="U29">
+      <c r="U29" t="n">
         <v>23502</v>
       </c>
-      <c r="V29">
+      <c r="V29" t="n">
         <v>11519</v>
       </c>
-      <c r="W29">
+      <c r="W29" t="n">
         <v>8071</v>
       </c>
-      <c r="X29">
+      <c r="X29" t="n">
         <v>6912</v>
       </c>
-      <c r="Y29">
+      <c r="Y29" t="n">
         <v>9012</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30">
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
         <v>24306</v>
       </c>
-      <c r="C30">
+      <c r="C30" t="n">
         <v>26793</v>
       </c>
-      <c r="D30">
+      <c r="D30" t="n">
         <v>8401</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="n">
         <v>9411</v>
       </c>
-      <c r="F30">
+      <c r="F30" t="n">
         <v>6235</v>
       </c>
-      <c r="G30">
+      <c r="G30" t="n">
         <v>1642</v>
       </c>
-      <c r="H30">
+      <c r="H30" t="n">
         <v>26935</v>
       </c>
-      <c r="I30">
+      <c r="I30" t="n">
         <v>29785</v>
       </c>
-      <c r="J30">
+      <c r="J30" t="n">
         <v>8033</v>
       </c>
-      <c r="K30">
+      <c r="K30" t="n">
         <v>9899</v>
       </c>
-      <c r="L30">
+      <c r="L30" t="n">
         <v>5573</v>
       </c>
-      <c r="M30">
+      <c r="M30" t="n">
         <v>1380</v>
       </c>
-      <c r="N30">
+      <c r="N30" t="n">
         <v>25396</v>
       </c>
-      <c r="O30">
+      <c r="O30" t="n">
         <v>27705</v>
       </c>
-      <c r="P30">
+      <c r="P30" t="n">
         <v>6378</v>
       </c>
-      <c r="Q30">
+      <c r="Q30" t="n">
         <v>8376</v>
       </c>
-      <c r="R30">
+      <c r="R30" t="n">
         <v>5387</v>
       </c>
-      <c r="S30">
+      <c r="S30" t="n">
         <v>1421</v>
       </c>
-      <c r="T30">
+      <c r="T30" t="n">
         <v>23779</v>
       </c>
-      <c r="U30">
+      <c r="U30" t="n">
         <v>24635</v>
       </c>
-      <c r="V30">
+      <c r="V30" t="n">
         <v>7395</v>
       </c>
-      <c r="W30">
+      <c r="W30" t="n">
         <v>6054</v>
       </c>
-      <c r="X30">
+      <c r="X30" t="n">
         <v>4954</v>
       </c>
-      <c r="Y30">
+      <c r="Y30" t="n">
         <v>1500</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>23</v>
-      </c>
-      <c r="B31">
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>P</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
         <v>4896</v>
       </c>
-      <c r="C31">
+      <c r="C31" t="n">
         <v>1725</v>
       </c>
-      <c r="D31">
+      <c r="D31" t="n">
         <v>1488</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="n">
         <v>14745</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="n">
         <v>9525</v>
       </c>
-      <c r="G31">
+      <c r="G31" t="n">
         <v>11301</v>
       </c>
-      <c r="H31">
+      <c r="H31" t="n">
         <v>5341</v>
       </c>
-      <c r="I31">
+      <c r="I31" t="n">
         <v>1571</v>
       </c>
-      <c r="J31">
+      <c r="J31" t="n">
         <v>1266</v>
       </c>
-      <c r="K31">
+      <c r="K31" t="n">
         <v>15835</v>
       </c>
-      <c r="L31">
+      <c r="L31" t="n">
         <v>6554</v>
       </c>
-      <c r="M31">
+      <c r="M31" t="n">
         <v>9392</v>
       </c>
-      <c r="N31">
+      <c r="N31" t="n">
         <v>5454</v>
       </c>
-      <c r="O31">
+      <c r="O31" t="n">
         <v>1839</v>
       </c>
-      <c r="P31">
+      <c r="P31" t="n">
         <v>1295</v>
       </c>
-      <c r="Q31">
+      <c r="Q31" t="n">
         <v>14665</v>
       </c>
-      <c r="R31">
+      <c r="R31" t="n">
         <v>6406</v>
       </c>
-      <c r="S31">
+      <c r="S31" t="n">
         <v>9669</v>
       </c>
-      <c r="T31">
+      <c r="T31" t="n">
         <v>4273</v>
       </c>
-      <c r="U31">
+      <c r="U31" t="n">
         <v>1798</v>
       </c>
-      <c r="V31">
+      <c r="V31" t="n">
         <v>1161</v>
       </c>
-      <c r="W31">
+      <c r="W31" t="n">
         <v>13774</v>
       </c>
-      <c r="X31">
+      <c r="X31" t="n">
         <v>6875</v>
       </c>
-      <c r="Y31">
+      <c r="Y31" t="n">
         <v>8759</v>
       </c>
     </row>
@@ -1974,229 +1760,365 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:F15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>50</v>
-      </c>
-      <c r="F10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>58</v>
-      </c>
-      <c r="B12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" t="s">
-        <v>66</v>
-      </c>
-      <c r="D13" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
-      </c>
-      <c r="F13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D15" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" t="s">
-        <v>80</v>
-      </c>
-      <c r="F15" t="s">
-        <v>81</v>
+    <row r="1"/>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Plate layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1:6</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7:12</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13:18</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>19:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>A:H</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>I:P</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Blank</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>S</t>
+        </is>
+      </c>
+    </row>
+    <row r="6"/>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Peptide layout</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>No Pep</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>CCPent</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>QLKEIA</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CCHex2-I24K</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>CCHept-I24N</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CCHept-L28W</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>GRP22</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>CCHex</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NLKEIA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CCHept-L28K</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>CCHept-I24T</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>CCHept-L7Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GRP35</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>CCHex2</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CCHept-I17G-L21G</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CCHept-I17H</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>CCHept-I24H</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>CCHept-L28Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>GRP46</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>CCHept</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CCHept-I17A-L21A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CCHept-I17K-I24E</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24S</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>CCHept-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>GRP51</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>CCHept-I24D</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CCHept-L14A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CCHept-L7K</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>CCHept-L21N-I24N</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>CCHept-L21S-I24Y</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>GRP52</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>CCHept-I24E</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CCHept-I24A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CCHept-L21K-I24E</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>CCHept-L21T-I24T</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>CCHept-L21Y-I24S</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>GRP63</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>CCHept-I24K</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CCHept-L21K</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CCHept-L21E-I24K</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>CCHept-L21H-I24H</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>CCHept-I17T</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GRP80</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>CCHept-I17K</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CCPent-I24K</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CCHept-I24S</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>CCHept-L7W</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>CCHept-I24P</t>
+        </is>
       </c>
     </row>
   </sheetData>
